--- a/example/excel/UnitConfig.xlsx
+++ b/example/excel/UnitConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\xlsx-exporter\example\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62FDD2F-0804-4C26-B907-2AF6D01C84CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3011F16B-3C3C-483B-9957-7B60E1F573EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>UTID</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>Default:1</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Unique</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,20 +884,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEAF5C6-E569-48EA-8C60-7A8027EECDD7}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -899,76 +906,79 @@
         <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -976,7 +986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -984,7 +994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -992,7 +1002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1011,7 +1021,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1061,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
